--- a/NivelBasico/Módulo 3 - Formato Condicional (2).xlsx
+++ b/NivelBasico/Módulo 3 - Formato Condicional (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giancarlos\Desktop\DISCO D\CÁMARA DE COMERCIO EXTERIOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Nik Denilson\Cursos\EXCEL\NivelBasico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E04937F-1633-4C95-92AB-8A8DB9D12295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB85E75-9836-42D4-A9B8-3B7C93E36357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="757" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="757" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="74" r:id="rId1"/>
@@ -1120,7 +1120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_ &quot;S/.&quot;\ * #,##0.00_ ;_ &quot;S/.&quot;\ * \-#,##0.00_ ;_ &quot;S/.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-[$€]* #,##0.00_-;\-[$€]* #,##0.00_-;_-[$€]* &quot;-&quot;??_-;_-@_-"/>
@@ -1130,6 +1130,7 @@
     <numFmt numFmtId="169" formatCode="00.00"/>
     <numFmt numFmtId="170" formatCode="&quot;S/.&quot;\ #,##0.00"/>
     <numFmt numFmtId="171" formatCode="_(&quot;S/.&quot;\ * #,##0.00_);_(&quot;S/.&quot;\ * \(#,##0.00\);_(&quot;S/.&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_ &quot;    S/.&quot;\ * #,##0.00_ ;_ &quot;S/.&quot;\ * \-#,##0.00_ ;_ &quot;S/.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1672,7 +1673,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="17" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -2016,6 +2017,14 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2050,7 +2059,59 @@
     <cellStyle name="Normal 6" xfId="21" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Normal_SALES93" xfId="27" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -2974,7 +3035,7 @@
   <dimension ref="B8:Q325"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:I10"/>
+      <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -3443,8 +3504,8 @@
   </sheetPr>
   <dimension ref="B1:V84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD16"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="24.9" customHeight="1"/>
@@ -3555,18 +3616,18 @@
         <v>17</v>
       </c>
       <c r="F7" s="45">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G7" s="45">
         <v>11</v>
       </c>
       <c r="H7" s="46">
         <f>AVERAGE(F7:G7)</f>
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="I7" s="47" t="str">
         <f>IF(H7&gt;=13,"Aprobado","Desaprobado")</f>
-        <v>Desaprobado</v>
+        <v>Aprobado</v>
       </c>
     </row>
     <row r="8" spans="3:21" s="5" customFormat="1" ht="30" customHeight="1">
@@ -4017,7 +4078,7 @@
       </c>
       <c r="F36" s="58">
         <f ca="1">TODAY()</f>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G36" s="47" t="s">
         <v>99</v>
@@ -4032,7 +4093,7 @@
       </c>
       <c r="F37" s="58">
         <f t="shared" ref="F37:F45" ca="1" si="2">TODAY()</f>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G37" s="47" t="s">
         <v>100</v>
@@ -4047,7 +4108,7 @@
       </c>
       <c r="F38" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G38" s="47" t="s">
         <v>99</v>
@@ -4062,7 +4123,7 @@
       </c>
       <c r="F39" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G39" s="47" t="s">
         <v>100</v>
@@ -4077,7 +4138,7 @@
       </c>
       <c r="F40" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G40" s="47" t="s">
         <v>99</v>
@@ -4092,7 +4153,7 @@
       </c>
       <c r="F41" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G41" s="47" t="s">
         <v>100</v>
@@ -4107,7 +4168,7 @@
       </c>
       <c r="F42" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G42" s="47" t="s">
         <v>99</v>
@@ -4122,7 +4183,7 @@
       </c>
       <c r="F43" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G43" s="47" t="s">
         <v>100</v>
@@ -4137,7 +4198,7 @@
       </c>
       <c r="F44" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G44" s="47" t="s">
         <v>99</v>
@@ -4152,7 +4213,7 @@
       </c>
       <c r="F45" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G45" s="52" t="s">
         <v>100</v>
@@ -4753,6 +4814,21 @@
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D20:H20"/>
   </mergeCells>
+  <conditionalFormatting sqref="G36:G45">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="No Apto">
+      <formula>NOT(ISERROR(SEARCH("No Apto",G36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H31">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Victoria">
+      <formula>NOT(ISERROR(SEARCH("Victoria",H22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:I16">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Desaprobado">
+      <formula>NOT(ISERROR(SEARCH("Desaprobado",I7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -4770,8 +4846,8 @@
   </sheetPr>
   <dimension ref="B1:U86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="24.9" customHeight="1"/>
@@ -6196,6 +6272,15 @@
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="D8:I8"/>
   </mergeCells>
+  <conditionalFormatting sqref="F51:F60">
+    <cfRule type="top10" dxfId="2" priority="1" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:G45">
+    <cfRule type="top10" dxfId="1" priority="2" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H19">
+    <cfRule type="top10" dxfId="0" priority="3" rank="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -6211,8 +6296,8 @@
   </sheetPr>
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H1"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -6586,9 +6671,40 @@
   <mergeCells count="1">
     <mergeCell ref="E1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="F8:F17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3E119FC5-6BA1-4343-8FB0-758578E60D4C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3E119FC5-6BA1-4343-8FB0-758578E60D4C}">
+            <x14:dataBar minLength="0" maxLength="100" direction="leftToRight">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F8:F17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6599,8 +6715,8 @@
   </sheetPr>
   <dimension ref="B1:U54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="24.9" customHeight="1"/>
@@ -6904,16 +7020,16 @@
       </c>
       <c r="F23" s="58">
         <f t="shared" ref="F23:F32" ca="1" si="1">TODAY()</f>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G23" s="77">
         <f ca="1">DATEDIF(E23,F23,"Y")</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H23" s="62">
         <v>2542</v>
       </c>
-      <c r="I23" s="63">
+      <c r="I23" s="77">
         <f ca="1">IF(G23&gt;10,8.88%*H23,4.44%*H23)</f>
         <v>225.7296</v>
       </c>
@@ -6930,18 +7046,18 @@
       </c>
       <c r="F24" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G24" s="77">
         <f t="shared" ref="G24:G32" ca="1" si="2">DATEDIF(E24,F24,"Y")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H24" s="62">
         <v>2681</v>
       </c>
-      <c r="I24" s="63">
+      <c r="I24" s="77">
         <f t="shared" ref="I24:I32" ca="1" si="3">IF(G24&gt;10,8.88%*H24,4.44%*H24)</f>
-        <v>119.0364</v>
+        <v>238.0728</v>
       </c>
     </row>
     <row r="25" spans="2:21" s="5" customFormat="1" ht="30" customHeight="1">
@@ -6956,16 +7072,16 @@
       </c>
       <c r="F25" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G25" s="77">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H25" s="62">
         <v>2433</v>
       </c>
-      <c r="I25" s="63">
+      <c r="I25" s="77">
         <f t="shared" ca="1" si="3"/>
         <v>216.0504</v>
       </c>
@@ -6982,16 +7098,16 @@
       </c>
       <c r="F26" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G26" s="77">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H26" s="62">
         <v>3156</v>
       </c>
-      <c r="I26" s="63">
+      <c r="I26" s="77">
         <f t="shared" ca="1" si="3"/>
         <v>280.25280000000004</v>
       </c>
@@ -7008,18 +7124,18 @@
       </c>
       <c r="F27" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G27" s="77">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H27" s="62">
         <v>2209</v>
       </c>
-      <c r="I27" s="63">
+      <c r="I27" s="77">
         <f t="shared" ca="1" si="3"/>
-        <v>98.079599999999999</v>
+        <v>196.1592</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -7046,16 +7162,16 @@
       </c>
       <c r="F28" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G28" s="77">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H28" s="62">
         <v>1759</v>
       </c>
-      <c r="I28" s="63">
+      <c r="I28" s="77">
         <f t="shared" ca="1" si="3"/>
         <v>156.19920000000002</v>
       </c>
@@ -7084,16 +7200,16 @@
       </c>
       <c r="F29" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G29" s="77">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H29" s="62">
         <v>1863</v>
       </c>
-      <c r="I29" s="63">
+      <c r="I29" s="77">
         <f t="shared" ca="1" si="3"/>
         <v>165.43440000000001</v>
       </c>
@@ -7122,16 +7238,16 @@
       </c>
       <c r="F30" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G30" s="77">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H30" s="62">
         <v>2559</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="77">
         <f t="shared" ca="1" si="3"/>
         <v>227.23920000000001</v>
       </c>
@@ -7160,16 +7276,16 @@
       </c>
       <c r="F31" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G31" s="77">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H31" s="62">
         <v>2900</v>
       </c>
-      <c r="I31" s="63">
+      <c r="I31" s="77">
         <f t="shared" ca="1" si="3"/>
         <v>257.52000000000004</v>
       </c>
@@ -7198,16 +7314,16 @@
       </c>
       <c r="F32" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G32" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H32" s="65">
         <v>2928</v>
       </c>
-      <c r="I32" s="66">
+      <c r="I32" s="78">
         <f t="shared" ca="1" si="3"/>
         <v>260.00639999999999</v>
       </c>
@@ -7612,6 +7728,36 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="E1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="F8:F17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G32">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I32">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -7630,8 +7776,8 @@
   </sheetPr>
   <dimension ref="B1:U54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="24.9" customHeight="1"/>
@@ -7640,7 +7786,7 @@
     <col min="2" max="2" width="16.5546875" style="13" customWidth="1"/>
     <col min="3" max="3" width="41.109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="27.88671875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="13" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" style="13" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" style="13" customWidth="1"/>
     <col min="8" max="8" width="18.109375" style="13" customWidth="1"/>
@@ -7731,7 +7877,7 @@
       <c r="D7" s="75">
         <v>24398</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="92">
         <f>D7*9.99%</f>
         <v>2437.3602000000001</v>
       </c>
@@ -7743,7 +7889,7 @@
       <c r="D8" s="75">
         <v>20415</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="92">
         <f t="shared" ref="E8:E16" si="0">D8*9.99%</f>
         <v>2039.4585</v>
       </c>
@@ -7755,7 +7901,7 @@
       <c r="D9" s="75">
         <v>18133</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="92">
         <f t="shared" si="0"/>
         <v>1811.4867000000002</v>
       </c>
@@ -7767,7 +7913,7 @@
       <c r="D10" s="75">
         <v>13079</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="92">
         <f t="shared" si="0"/>
         <v>1306.5921000000001</v>
       </c>
@@ -7779,7 +7925,7 @@
       <c r="D11" s="75">
         <v>21677</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="92">
         <f t="shared" si="0"/>
         <v>2165.5322999999999</v>
       </c>
@@ -7791,7 +7937,7 @@
       <c r="D12" s="75">
         <v>17617</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="92">
         <f t="shared" si="0"/>
         <v>1759.9383</v>
       </c>
@@ -7803,7 +7949,7 @@
       <c r="D13" s="75">
         <v>21633</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="92">
         <f t="shared" si="0"/>
         <v>2161.1367</v>
       </c>
@@ -7815,7 +7961,7 @@
       <c r="D14" s="75">
         <v>13706</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="92">
         <f t="shared" si="0"/>
         <v>1369.2293999999999</v>
       </c>
@@ -7827,7 +7973,7 @@
       <c r="D15" s="75">
         <v>13723</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="92">
         <f t="shared" si="0"/>
         <v>1370.9277</v>
       </c>
@@ -7839,7 +7985,7 @@
       <c r="D16" s="76">
         <v>19286</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="93">
         <f t="shared" si="0"/>
         <v>1926.6713999999999</v>
       </c>
@@ -7905,11 +8051,11 @@
       </c>
       <c r="F23" s="58">
         <f t="shared" ref="F23:F32" ca="1" si="1">TODAY()</f>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G23" s="77">
         <f ca="1">DATEDIF(E23,F23,"y")</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H23" s="62">
         <v>2542</v>
@@ -7931,18 +8077,18 @@
       </c>
       <c r="F24" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G24" s="77">
         <f t="shared" ref="G24:G32" ca="1" si="2">DATEDIF(E24,F24,"y")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H24" s="62">
         <v>2681</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ref="I24:I32" ca="1" si="3">IF(G24&gt;10,8.88%*H24,4.44%*H24)</f>
-        <v>119.0364</v>
+        <v>238.0728</v>
       </c>
     </row>
     <row r="25" spans="2:21" s="5" customFormat="1" ht="30" customHeight="1">
@@ -7957,11 +8103,11 @@
       </c>
       <c r="F25" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G25" s="77">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H25" s="62">
         <v>2433</v>
@@ -7983,11 +8129,11 @@
       </c>
       <c r="F26" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G26" s="77">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H26" s="62">
         <v>3156</v>
@@ -8009,18 +8155,18 @@
       </c>
       <c r="F27" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G27" s="77">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H27" s="62">
         <v>2209</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="3"/>
-        <v>98.079599999999999</v>
+        <v>196.1592</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -8047,17 +8193,16 @@
       </c>
       <c r="F28" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G28" s="77">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H28" s="62">
         <v>1759</v>
       </c>
       <c r="I28" s="63">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>156.19920000000002</v>
       </c>
       <c r="J28" s="7"/>
@@ -8085,11 +8230,11 @@
       </c>
       <c r="F29" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G29" s="77">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H29" s="62">
         <v>1863</v>
@@ -8123,18 +8268,17 @@
       </c>
       <c r="F30" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G30" s="77">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H30" s="62">
         <v>2559</v>
       </c>
       <c r="I30" s="63">
-        <f t="shared" ca="1" si="3"/>
-        <v>227.23920000000001</v>
+        <f t="shared" si="3"/>
+        <v>113.61960000000001</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -8161,11 +8305,11 @@
       </c>
       <c r="F31" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G31" s="77">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H31" s="62">
         <v>2900</v>
@@ -8199,11 +8343,11 @@
       </c>
       <c r="F32" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>44812</v>
+        <v>46014</v>
       </c>
       <c r="G32" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H32" s="65">
         <v>2928</v>
@@ -8613,9 +8757,45 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="E1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="G23:G32">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="12"/>
+        <cfvo type="num" val="16"/>
+        <cfvo type="num" val="20"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{F6EF081E-8FAB-4E39-A65B-F5071AD7A4B8}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2000</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E7:E16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>